--- a/noise removal.xlsx
+++ b/noise removal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betht\DataScience\coursework\data_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4433A8F-77A7-4D72-B7F4-A8ADBB09B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5B327-B66D-4CD9-8C6E-1D08D28B60C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="0" windowWidth="7500" windowHeight="10170" xr2:uid="{8CA3B21A-0182-4E04-8777-B74CE0BFBE93}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{8CA3B21A-0182-4E04-8777-B74CE0BFBE93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Median</t>
   </si>
@@ -47,21 +47,12 @@
     <t>Gaussian</t>
   </si>
   <si>
-    <t>Nlmeans</t>
-  </si>
-  <si>
     <t>ksize=3</t>
   </si>
   <si>
     <t>ksize=5</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>(3,75,75)</t>
   </si>
   <si>
@@ -107,13 +98,34 @@
     <t>(5,5), 10</t>
   </si>
   <si>
-    <t xml:space="preserve">median is necessary </t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
     <t>looks bad</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Dilation</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksize=3 </t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>(BUT BLURRY)</t>
+  </si>
+  <si>
+    <t>NLmeans</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -151,13 +163,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,6 +395,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D08A14-A473-6C28-17EC-5CA0C4FE3B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2965450"/>
+          <a:ext cx="10350500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D9DB93-3D7B-467F-A094-E5B9B81FB8CC}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,172 +771,217 @@
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>0.7</v>
       </c>
-      <c r="C4">
+      <c r="C14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="F4">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="G4">
-        <v>0.65</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0.65</v>
-      </c>
-      <c r="L4">
-        <v>0.57499999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="G7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>0.7</v>
-      </c>
-      <c r="C11">
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>